--- a/Data/Weather/Data collector 20210209.xlsx
+++ b/Data/Weather/Data collector 20210209.xlsx
@@ -435,57 +435,57 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.4 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1019.6 </t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.1 </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.0 </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">260 </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">250 </t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -522,57 +522,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.4 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1019.6 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.4 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.4 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">310 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -582,22 +582,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.0 </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">6.0 </t>
         </is>
       </c>
     </row>
@@ -609,57 +609,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1008.8 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1019.0 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.6 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.1 </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -696,57 +696,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1008.5 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1018.7 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.6 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">270 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">240 </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -783,57 +783,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1007.9 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1018.1 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.2 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.4 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.0 </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
@@ -870,67 +870,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1007.7 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1018.0 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.4 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.7 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">110 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.2 </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -957,67 +957,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1008.2 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1018.4 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.2 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.6 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">260 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">250 </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.02 </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1044,82 +1044,82 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.1 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1019.3 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.1 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.2 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.6 </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.32 </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
     </row>
@@ -1131,82 +1131,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.2 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1019.3 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.6 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.13 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
     </row>
@@ -1218,67 +1218,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.3 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1019.4 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.3 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.7 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">58 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.5 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10 </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.79 </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1305,82 +1305,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1008.9 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1018.9 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.1 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.4 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.6 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.42 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
     </row>
@@ -1392,67 +1392,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1008.2 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1018.2 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.5 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.5 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">290 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">250 </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.68 </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1479,67 +1479,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1006.7 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.6 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.7 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.3 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">46 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">190 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">190 </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.84 </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1566,82 +1566,82 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1005.8 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">25.0 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.9 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">47 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5.6 </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.54 </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">6 </t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">8.0 </t>
         </is>
       </c>
     </row>
@@ -1653,67 +1653,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1005.5 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.4 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.3 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.5 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">6.7 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">320 </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.73 </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1740,67 +1740,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1005.7 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.5 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.4 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">6.1 </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.43 </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1827,82 +1827,82 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1005.7 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.4 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.2 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">56 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5.4 </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.67 </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.0 </t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
     </row>
@@ -1914,67 +1914,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1005.6 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.6 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.6 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.3 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.06 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2001,67 +2001,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1006.3 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.4 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.2 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.0 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">63 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5.9 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2088,57 +2088,57 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1007.2 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1017.3 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.9 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">320 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2148,22 +2148,22 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.0 </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
     </row>
@@ -2175,57 +2175,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1007.7 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1017.8 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.0 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.2 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.7 </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2235,22 +2235,22 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.0 </t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5.0 </t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1007.2 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1017.3 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.5 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.6 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">160 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.9 </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2349,57 +2349,57 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1006.8 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1017.0 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.4 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.5 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">150 </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2409,22 +2409,22 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.0 </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
     </row>
@@ -2436,57 +2436,57 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1006.9 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1017.1 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13.6 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">240 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">260 </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">992.6 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.9 </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -2562,17 +2562,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">331 </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">992.6 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.5 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">332 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">991.7 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.5 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2823,17 +2823,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">351 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">991.1 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.1 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2910,17 +2910,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">990.8 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.1 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2997,17 +2997,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">991.4 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.1 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3084,17 +3084,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">346 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">992.2 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3171,17 +3171,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">992.4 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.1 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">306 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">992.4 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">285 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">992.3 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.5 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">45 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">306 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">991.6 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.7 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">41 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">290 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">990.3 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.7 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3606,17 +3606,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">39 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.5 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">308 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.6 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.8 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3693,17 +3693,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">308 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.0 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.4 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3780,17 +3780,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">42 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.3 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">318 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.1 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.6 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3867,17 +3867,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">45 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">324 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.2 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.8 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3954,17 +3954,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">47 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">331 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.1 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.2 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4041,17 +4041,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">328 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.7 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.6 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4128,17 +4128,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">337 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">990.4 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.0 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4215,17 +4215,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">324 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">990.9 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.1 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">294 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">990.3 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.7 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4389,17 +4389,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">70 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">175 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">990.0 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.4 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4476,17 +4476,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">172 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">989.8 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4563,17 +4563,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">201 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.8 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.0 </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">310 </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.8 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4756,17 +4756,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.3 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4843,17 +4843,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.0 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4930,17 +4930,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">305 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">997.1 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5017,17 +5017,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.9 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5104,17 +5104,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">997.4 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5191,17 +5191,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">82 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.4 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5278,17 +5278,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">86 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.7 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5365,17 +5365,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">299 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">999.0 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.7 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5452,17 +5452,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">289 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.9 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.3 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5539,17 +5539,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">54 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">290 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">998.2 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.4 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5626,17 +5626,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">285 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.8 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.8 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5713,17 +5713,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">290 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.0 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.2 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5800,17 +5800,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">56 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">302 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">995.4 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.7 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5887,17 +5887,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">300 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">995.7 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.9 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5974,17 +5974,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">55 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">297 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">995.7 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.2 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6061,17 +6061,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">58 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">313 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">995.4 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.3 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -6148,17 +6148,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">300 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.0 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -6235,17 +6235,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">68 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.7 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.7 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6322,17 +6322,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">312 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">997.2 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.0 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -6409,17 +6409,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">316 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.5 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.1 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -6496,17 +6496,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.3 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.8 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6583,17 +6583,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">996.2 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.5 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6670,17 +6670,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.2 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.8 </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -6776,17 +6776,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">335 </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.3 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6863,17 +6863,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.4 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6950,17 +6950,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.5 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -7037,17 +7037,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">328 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.7 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -7124,17 +7124,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.5 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.7 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7211,17 +7211,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">341 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.0 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -7298,17 +7298,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">342 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.0 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.7 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7385,17 +7385,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.2 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7472,17 +7472,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">64 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">13 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1016.4 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.0 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7559,17 +7559,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.3 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">283 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.7 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.7 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7646,17 +7646,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">199 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.2 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.0 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7733,17 +7733,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">49 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">337 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.7 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.5 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7820,17 +7820,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">48 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">333 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.0 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">25.0 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -7907,17 +7907,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">48 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.7 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">321 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.5 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.5 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7994,17 +7994,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.4 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.4 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.0 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8081,17 +8081,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">52 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.5 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">351 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.4 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.7 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8168,17 +8168,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">57 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.0 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.3 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.8 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8255,17 +8255,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">323 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.8 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8342,17 +8342,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.3 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">336 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.7 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.9 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">344 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.2 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -8516,17 +8516,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">68 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">335 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.9 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.8 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8603,17 +8603,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">255 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.6 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8690,17 +8690,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.8 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -8777,17 +8777,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">248 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.2 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -8883,17 +8883,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">334 </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.0 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.2 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8970,17 +8970,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.3 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9057,17 +9057,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.9 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">45 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.2 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.3 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">346 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.3 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -9231,17 +9231,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.2 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9318,17 +9318,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.9 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.8 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9405,17 +9405,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.6 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9492,17 +9492,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.9 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.2 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9579,17 +9579,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.1 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -9666,17 +9666,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.6 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">307 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.8 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.3 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -9753,17 +9753,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">54 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">332 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.2 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.6 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -9840,17 +9840,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.5 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1010.9 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.0 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -9927,17 +9927,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.8 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">328 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1010.0 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.9 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -10014,17 +10014,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">52 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5.3 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.7 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.1 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -10101,17 +10101,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">55 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">328 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.7 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.3 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -10188,17 +10188,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">58 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">5.6 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">329 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.7 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.9 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -10275,17 +10275,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.3 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">341 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1009.7 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.6 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -10362,17 +10362,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">3.4 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">335 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1010.2 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.0 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -10449,17 +10449,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">70 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">335 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.1 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">18.3 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -10536,17 +10536,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">357 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.7 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.6 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -10623,17 +10623,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">318 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.1 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -10710,17 +10710,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">82 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">125 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1010.6 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -10797,17 +10797,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">8 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1010.7 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -10884,17 +10884,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -10970,7 +10970,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.3 </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">15.7 </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -10990,17 +10990,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">99 </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -11015,7 +11015,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.1 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11077,17 +11077,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">99 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.6 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -11164,17 +11164,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.2 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11251,17 +11251,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.6 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11338,17 +11338,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">96 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">33 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.5 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.2 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -11425,17 +11425,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">352 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.1 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">14.9 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -11512,17 +11512,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">99 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.8 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -11599,17 +11599,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">96 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">57 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.2 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -11686,17 +11686,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">147 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.2 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">21.8 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -11773,17 +11773,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">302 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1015.0 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.4 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -11860,17 +11860,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">265 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1014.3 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">25.1 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -11947,17 +11947,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">48 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">154 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.0 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">25.0 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -12034,17 +12034,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">47 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">285 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.1 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">25.8 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -12121,17 +12121,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">45 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">279 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.5 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">24.4 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -12208,17 +12208,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">49 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">312 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.7 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">23.2 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -12295,17 +12295,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">54 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">314 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.8 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">22.2 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -12382,17 +12382,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">58 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">325 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1011.9 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">20.8 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -12469,17 +12469,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">64 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">289 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.4 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.7 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12556,17 +12556,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">70 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">326 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.1 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">19.1 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12643,17 +12643,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.8 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -12730,17 +12730,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">88 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">153 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1013.2 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">17.4 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12817,17 +12817,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">167 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.7 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12904,17 +12904,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">98 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">1012.9 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -12991,17 +12991,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">99 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
